--- a/src/data/ldr-money.xlsx
+++ b/src/data/ldr-money.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarn\Documents\project-offline\visualization\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DD4D726-7FB0-4606-8C7C-3E0B8B8D4FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE32E1D-DE0F-4DB5-A35E-44598F8AA180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{97F73AB9-C02B-4A24-B2B2-6FEEBAC976D1}"/>
   </bookViews>
@@ -38,237 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
-    <t>กาญจนบุรี</t>
-  </si>
-  <si>
-    <t>จันทบุรี</t>
-  </si>
-  <si>
-    <t>ฉะเชิงเทรา</t>
-  </si>
-  <si>
-    <t>ชลบุรี</t>
-  </si>
-  <si>
-    <t>ชัยนาท</t>
-  </si>
-  <si>
-    <t>ตราด</t>
-  </si>
-  <si>
-    <t>นครนายก</t>
-  </si>
-  <si>
-    <t>นครปฐม</t>
-  </si>
-  <si>
-    <t>นนทบุรี</t>
-  </si>
-  <si>
-    <t>ปทุมธานี</t>
-  </si>
-  <si>
-    <t>ประจวบคีรีขันธ์</t>
-  </si>
-  <si>
-    <t>ปราจีนบุรี</t>
-  </si>
-  <si>
-    <t>พระนครศรีอยุธยา</t>
-  </si>
-  <si>
-    <t>เพชรบุรี</t>
-  </si>
-  <si>
-    <t>ระยอง</t>
-  </si>
-  <si>
-    <t>ราชบุรี</t>
-  </si>
-  <si>
-    <t>ลพบุรี</t>
-  </si>
-  <si>
-    <t>สมุทรปราการ</t>
-  </si>
-  <si>
-    <t>สมุทรสงคราม</t>
-  </si>
-  <si>
-    <t>สมุทรสาคร</t>
-  </si>
-  <si>
-    <t>สระแก้ว</t>
-  </si>
-  <si>
-    <t>สระบุรี</t>
-  </si>
-  <si>
-    <t>สิงห์บุรี</t>
-  </si>
-  <si>
-    <t>สุพรรณบุรี</t>
-  </si>
-  <si>
-    <t>อ่างทอง</t>
-  </si>
-  <si>
-    <t>กาฬสินธุ์</t>
-  </si>
-  <si>
-    <t>ขอนแก่น</t>
-  </si>
-  <si>
-    <t>ชัยภูมิ</t>
-  </si>
-  <si>
-    <t>นครพนม</t>
-  </si>
-  <si>
-    <t>นครราชสีมา</t>
-  </si>
-  <si>
-    <t>บึงกาฬ</t>
-  </si>
-  <si>
-    <t>บุรีรัมย์</t>
-  </si>
-  <si>
-    <t>มหาสารคาม</t>
-  </si>
-  <si>
-    <t>มุกดาหาร</t>
-  </si>
-  <si>
-    <t>ยโสธร</t>
-  </si>
-  <si>
-    <t>ร้อยเอ็ด</t>
-  </si>
-  <si>
-    <t>เลย</t>
-  </si>
-  <si>
-    <t>ศรีสะเกษ</t>
-  </si>
-  <si>
-    <t>สกลนคร</t>
-  </si>
-  <si>
-    <t>สุรินทร์</t>
-  </si>
-  <si>
-    <t>หนองคาย</t>
-  </si>
-  <si>
-    <t>หนองบัวลำภู</t>
-  </si>
-  <si>
-    <t>อำนาจเจริญ</t>
-  </si>
-  <si>
-    <t>อุดรธานี</t>
-  </si>
-  <si>
-    <t>อุบลราชธานี</t>
-  </si>
-  <si>
-    <t>กำแพงเพชร</t>
-  </si>
-  <si>
-    <t>เชียงราย</t>
-  </si>
-  <si>
-    <t>เชียงใหม่</t>
-  </si>
-  <si>
-    <t>ตาก</t>
-  </si>
-  <si>
-    <t>นครสวรรค์</t>
-  </si>
-  <si>
-    <t>น่าน</t>
-  </si>
-  <si>
-    <t>พะเยา</t>
-  </si>
-  <si>
-    <t>พิจิตร</t>
-  </si>
-  <si>
-    <t>พิษณุโลก</t>
-  </si>
-  <si>
-    <t>เพชรบูรณ์</t>
-  </si>
-  <si>
-    <t>แพร่</t>
-  </si>
-  <si>
-    <t>แม่ฮ่องสอน</t>
-  </si>
-  <si>
-    <t>ลำปาง</t>
-  </si>
-  <si>
-    <t>ลำพูน</t>
-  </si>
-  <si>
-    <t>สุโขทัย</t>
-  </si>
-  <si>
-    <t>อุตรดิตถ์</t>
-  </si>
-  <si>
-    <t>อุทัยธานี</t>
-  </si>
-  <si>
-    <t>กระบี่</t>
-  </si>
-  <si>
-    <t>ชุมพร</t>
-  </si>
-  <si>
-    <t>ตรัง</t>
-  </si>
-  <si>
-    <t>นครศรีธรรมราช</t>
-  </si>
-  <si>
-    <t>นราธิวาส</t>
-  </si>
-  <si>
-    <t>ปัตตานี</t>
-  </si>
-  <si>
-    <t>พังงา</t>
-  </si>
-  <si>
-    <t>พัทลุง</t>
-  </si>
-  <si>
-    <t>ภูเก็ต</t>
-  </si>
-  <si>
-    <t>ยะลา</t>
-  </si>
-  <si>
-    <t>ระนอง</t>
-  </si>
-  <si>
-    <t>สงขลา</t>
-  </si>
-  <si>
-    <t>สตูล</t>
-  </si>
-  <si>
-    <t>สุราษฎร์ธานี</t>
-  </si>
-  <si>
-    <t>กรุงเทพมหานคร</t>
-  </si>
-  <si>
     <t>loan</t>
   </si>
   <si>
@@ -276,6 +45,237 @@
   </si>
   <si>
     <t>province</t>
+  </si>
+  <si>
+    <t>Bangkok</t>
+  </si>
+  <si>
+    <t>Kanchanaburi</t>
+  </si>
+  <si>
+    <t>Chanthaburi</t>
+  </si>
+  <si>
+    <t>Chachoengsao</t>
+  </si>
+  <si>
+    <t>Chon Buri</t>
+  </si>
+  <si>
+    <t>Chai Nat</t>
+  </si>
+  <si>
+    <t>Trat</t>
+  </si>
+  <si>
+    <t>Nakhon Nayok</t>
+  </si>
+  <si>
+    <t>Nakhon Pathom</t>
+  </si>
+  <si>
+    <t>Nonthaburi</t>
+  </si>
+  <si>
+    <t>Pathum Thani</t>
+  </si>
+  <si>
+    <t>Prachuap Khiri Khan</t>
+  </si>
+  <si>
+    <t>Prachin Buri</t>
+  </si>
+  <si>
+    <t>Phra Nakhon Si Ayutthaya</t>
+  </si>
+  <si>
+    <t>Phetchaburi</t>
+  </si>
+  <si>
+    <t>Rayong</t>
+  </si>
+  <si>
+    <t>Ratchaburi</t>
+  </si>
+  <si>
+    <t>Lop Buri</t>
+  </si>
+  <si>
+    <t>Samut Prakan</t>
+  </si>
+  <si>
+    <t>Samut Songkhram</t>
+  </si>
+  <si>
+    <t>Samut Sakhon</t>
+  </si>
+  <si>
+    <t>Sa Kaeo</t>
+  </si>
+  <si>
+    <t>Saraburi</t>
+  </si>
+  <si>
+    <t>Sing Buri</t>
+  </si>
+  <si>
+    <t>Suphan Buri</t>
+  </si>
+  <si>
+    <t>Ang Thong</t>
+  </si>
+  <si>
+    <t>Kalasin</t>
+  </si>
+  <si>
+    <t>Khon Kaen</t>
+  </si>
+  <si>
+    <t>Chaiyaphum</t>
+  </si>
+  <si>
+    <t>Nakhon Phanom</t>
+  </si>
+  <si>
+    <t>Nakhon Ratchasima</t>
+  </si>
+  <si>
+    <t>Bueng Kan</t>
+  </si>
+  <si>
+    <t>Buriram</t>
+  </si>
+  <si>
+    <t>Maha Sarakham</t>
+  </si>
+  <si>
+    <t>Mukdahan</t>
+  </si>
+  <si>
+    <t>Yasothon</t>
+  </si>
+  <si>
+    <t>Roi Et</t>
+  </si>
+  <si>
+    <t>Loei</t>
+  </si>
+  <si>
+    <t>Sisaket</t>
+  </si>
+  <si>
+    <t>Sakon Nakhon</t>
+  </si>
+  <si>
+    <t>Surin</t>
+  </si>
+  <si>
+    <t>Nong Khai</t>
+  </si>
+  <si>
+    <t>Nong Bua Lamphu</t>
+  </si>
+  <si>
+    <t>Amnat Charoen</t>
+  </si>
+  <si>
+    <t>Udon Thani</t>
+  </si>
+  <si>
+    <t>Ubon Ratchathani</t>
+  </si>
+  <si>
+    <t>Kamphaeng Phet</t>
+  </si>
+  <si>
+    <t>Chiang Rai</t>
+  </si>
+  <si>
+    <t>Chiang Mai</t>
+  </si>
+  <si>
+    <t>Tak</t>
+  </si>
+  <si>
+    <t>Nakhon Sawan</t>
+  </si>
+  <si>
+    <t>Nan</t>
+  </si>
+  <si>
+    <t>Phayao</t>
+  </si>
+  <si>
+    <t>Phichit</t>
+  </si>
+  <si>
+    <t>Phitsanulok</t>
+  </si>
+  <si>
+    <t>Phetchabun</t>
+  </si>
+  <si>
+    <t>Phrae</t>
+  </si>
+  <si>
+    <t>Mae Hong Son</t>
+  </si>
+  <si>
+    <t>Lampang</t>
+  </si>
+  <si>
+    <t>Lamphun</t>
+  </si>
+  <si>
+    <t>Sukhothai</t>
+  </si>
+  <si>
+    <t>Uttaradit</t>
+  </si>
+  <si>
+    <t>Uthai Thani</t>
+  </si>
+  <si>
+    <t>Krabi</t>
+  </si>
+  <si>
+    <t>Chumphon</t>
+  </si>
+  <si>
+    <t>Trang</t>
+  </si>
+  <si>
+    <t>Nakhon Si Thammarat</t>
+  </si>
+  <si>
+    <t>Narathiwat</t>
+  </si>
+  <si>
+    <t>Pattani</t>
+  </si>
+  <si>
+    <t>Phangnga</t>
+  </si>
+  <si>
+    <t>Phatthalung</t>
+  </si>
+  <si>
+    <t>Phuket</t>
+  </si>
+  <si>
+    <t>Yala</t>
+  </si>
+  <si>
+    <t>Ranong</t>
+  </si>
+  <si>
+    <t>Songkhla</t>
+  </si>
+  <si>
+    <t>Satun</t>
+  </si>
+  <si>
+    <t>Suratthani</t>
   </si>
 </sst>
 </file>
@@ -663,18 +663,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>13537830</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>32188</v>
@@ -696,7 +696,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>35220</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>70591</v>
@@ -718,7 +718,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>460400</v>
@@ -729,7 +729,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
         <v>11842</v>
@@ -740,7 +740,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
         <v>9935</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
         <v>9588</v>
@@ -762,7 +762,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1">
         <v>128121</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1">
         <v>276587</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1">
         <v>201640</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1">
         <v>38676</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1">
         <v>35791</v>
@@ -817,7 +817,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1">
         <v>95233</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1">
         <v>23766</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1">
         <v>164081</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1">
         <v>64522</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1">
         <v>38858</v>
@@ -872,7 +872,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1">
         <v>317146</v>
@@ -883,7 +883,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1">
         <v>9377</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1">
         <v>112136</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1">
         <v>18228</v>
@@ -916,7 +916,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1">
         <v>58739</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1">
         <v>9131</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1">
         <v>39568</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1">
         <v>9368</v>
@@ -960,7 +960,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1">
         <v>26150</v>
@@ -971,7 +971,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1">
         <v>156142</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B30" s="1">
         <v>25366</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B31" s="1">
         <v>17336</v>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B32" s="1">
         <v>183313</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B33" s="1">
         <v>11365</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B34" s="1">
         <v>42338</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B35" s="1">
         <v>30865</v>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B36" s="1">
         <v>15573</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B37" s="1">
         <v>18754</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B38" s="1">
         <v>59097</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B39" s="1">
         <v>22252</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B40" s="1">
         <v>38724</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B41" s="1">
         <v>42056</v>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B42" s="1">
         <v>49348</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B43" s="1">
         <v>22481</v>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B44" s="1">
         <v>12417</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B45" s="1">
         <v>10335</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B46" s="1">
         <v>98522</v>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B47" s="1">
         <v>102427</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B48" s="1">
         <v>30269</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B49" s="1">
         <v>67674</v>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B50" s="1">
         <v>214803</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B51" s="1">
         <v>20053</v>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B52" s="1">
         <v>69335</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B53" s="1">
         <v>11325</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B54" s="1">
         <v>15229</v>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B55" s="1">
         <v>15160</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B56" s="1">
         <v>65882</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B57" s="1">
         <v>34740</v>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B58" s="1">
         <v>15644</v>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B59" s="1">
         <v>5336</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B60" s="1">
         <v>32117</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B61" s="1">
         <v>18125</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B62" s="1">
         <v>12190</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B63" s="1">
         <v>19128</v>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B64" s="1">
         <v>5331</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B65" s="1">
         <v>44005</v>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B66" s="1">
         <v>30466</v>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B67" s="1">
         <v>41975</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B68" s="1">
         <v>86497</v>
@@ -1411,7 +1411,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B69" s="1">
         <v>12017</v>
@@ -1422,7 +1422,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B70" s="1">
         <v>12380</v>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B71" s="1">
         <v>12377</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B72" s="1">
         <v>16715</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B73" s="1">
         <v>185595</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B74" s="1">
         <v>18644</v>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B75" s="1">
         <v>7478</v>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B76" s="1">
         <v>153823</v>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B77" s="1">
         <v>8169</v>
@@ -1510,7 +1510,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B78" s="1">
         <v>115696</v>

--- a/src/data/ldr-money.xlsx
+++ b/src/data/ldr-money.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarn\Documents\project-offline\visualization\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\website\visualization\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE32E1D-DE0F-4DB5-A35E-44598F8AA180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45DB491-C74F-4E34-A37A-2059D4D30C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{97F73AB9-C02B-4A24-B2B2-6FEEBAC976D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{97F73AB9-C02B-4A24-B2B2-6FEEBAC976D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -649,19 +649,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB846535-FEF9-4F5A-BD8D-A91FACBCDABD}">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D78"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -672,7 +672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -682,8 +682,16 @@
       <c r="C2" s="1">
         <v>10602503</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D2" s="1">
+        <f>MIN(B2:B78)</f>
+        <v>5331</v>
+      </c>
+      <c r="E2" s="1">
+        <f>AVERAGE(C2:C78)</f>
+        <v>221159.92207792209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -693,8 +701,16 @@
       <c r="C3" s="1">
         <v>55753</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D3" s="1">
+        <f>MAX(B2:B78)</f>
+        <v>13537830</v>
+      </c>
+      <c r="E3" s="1">
+        <f>MIN(C2:C78)</f>
+        <v>7648</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -704,8 +720,12 @@
       <c r="C4" s="1">
         <v>81653</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E4" s="1">
+        <f>MAX(C2:C78)</f>
+        <v>10602503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -716,7 +736,7 @@
         <v>99691</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -727,7 +747,7 @@
         <v>594949</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -738,7 +758,7 @@
         <v>17940</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -749,7 +769,7 @@
         <v>22387</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -760,7 +780,7 @@
         <v>23047</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -771,7 +791,7 @@
         <v>231313</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -782,7 +802,7 @@
         <v>638926</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -793,7 +813,7 @@
         <v>350024</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -804,7 +824,7 @@
         <v>67805</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -815,7 +835,7 @@
         <v>46154</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -826,7 +846,7 @@
         <v>129859</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -837,7 +857,7 @@
         <v>36895</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -848,7 +868,7 @@
         <v>179860</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -859,7 +879,7 @@
         <v>101733</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -870,7 +890,7 @@
         <v>53294</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -881,7 +901,7 @@
         <v>582512</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -892,7 +912,7 @@
         <v>22683</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -903,7 +923,7 @@
         <v>203744</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -914,7 +934,7 @@
         <v>28835</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -925,7 +945,7 @@
         <v>84321</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -936,7 +956,7 @@
         <v>18886</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -947,7 +967,7 @@
         <v>67302</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -958,7 +978,7 @@
         <v>18495</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -969,7 +989,7 @@
         <v>25013</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -980,7 +1000,7 @@
         <v>133142</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -991,7 +1011,7 @@
         <v>31498</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1002,7 +1022,7 @@
         <v>21463</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1013,7 +1033,7 @@
         <v>187456</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1024,7 +1044,7 @@
         <v>9292</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1035,7 +1055,7 @@
         <v>49835</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1046,7 +1066,7 @@
         <v>35946</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1057,7 +1077,7 @@
         <v>15236</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1068,7 +1088,7 @@
         <v>17061</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1079,7 +1099,7 @@
         <v>39524</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1090,7 +1110,7 @@
         <v>24256</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1101,7 +1121,7 @@
         <v>38386</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1112,7 +1132,7 @@
         <v>36357</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1123,7 +1143,7 @@
         <v>43900</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1134,7 +1154,7 @@
         <v>27661</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1145,7 +1165,7 @@
         <v>14110</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1156,7 +1176,7 @@
         <v>8943</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1167,7 +1187,7 @@
         <v>103085</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1178,7 +1198,7 @@
         <v>85874</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1189,7 +1209,7 @@
         <v>29906</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1200,7 +1220,7 @@
         <v>90149</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1211,7 +1231,7 @@
         <v>304028</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1222,7 +1242,7 @@
         <v>33673</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -1233,7 +1253,7 @@
         <v>68761</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1244,7 +1264,7 @@
         <v>16642</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -1255,7 +1275,7 @@
         <v>20818</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -1266,7 +1286,7 @@
         <v>27471</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -1277,7 +1297,7 @@
         <v>64373</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -1288,7 +1308,7 @@
         <v>37597</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -1299,7 +1319,7 @@
         <v>19273</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -1310,7 +1330,7 @@
         <v>7648</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -1321,7 +1341,7 @@
         <v>42581</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -1332,7 +1352,7 @@
         <v>27005</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -1343,7 +1363,7 @@
         <v>25030</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -1354,7 +1374,7 @@
         <v>19917</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -1365,7 +1385,7 @@
         <v>16649</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -1376,7 +1396,7 @@
         <v>34371</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -1387,7 +1407,7 @@
         <v>49977</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -1398,7 +1418,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -1409,7 +1429,7 @@
         <v>88462</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -1420,7 +1440,7 @@
         <v>22591</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -1431,7 +1451,7 @@
         <v>21948</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -1442,7 +1462,7 @@
         <v>21104</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -1453,7 +1473,7 @@
         <v>20855</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -1464,7 +1484,7 @@
         <v>188420</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -1475,7 +1495,7 @@
         <v>34095</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -1486,7 +1506,7 @@
         <v>20513</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -1497,7 +1517,7 @@
         <v>180715</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -1508,7 +1528,7 @@
         <v>10351</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -1519,7 +1539,7 @@
         <v>133154</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
     </row>
   </sheetData>
